--- a/Exemples/Francis.xlsx
+++ b/Exemples/Francis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">Ordonnée t</t>
   </si>
@@ -61,6 +61,18 @@
     <t xml:space="preserve">Long_entree</t>
   </si>
   <si>
+    <t xml:space="preserve">208.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long_sortie</t>
   </si>
   <si>
@@ -85,43 +97,10 @@
     <t xml:space="preserve">EpLast_extrados</t>
   </si>
   <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">EpLast_intrados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abscisse curviligne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-56.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">363.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
   </si>
 </sst>
 </file>
@@ -131,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,11 +131,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +180,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,10 +201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,20 +285,13 @@
         <v>-20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">B5-10</f>
         <v>-30</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">C5-10</f>
         <v>-40</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">D5-10</f>
         <v>-50</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:E5)</f>
-        <v>-35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,24 +299,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">B5-38</f>
-        <v>-58</v>
+        <v>-80</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">C5-38</f>
-        <v>-68</v>
+        <v>-75</v>
       </c>
       <c r="D6" s="0" t="n">
-        <f aca="false">D5-38</f>
-        <v>-78</v>
+        <v>-70</v>
       </c>
       <c r="E6" s="0" t="n">
-        <f aca="false">E5-38</f>
-        <v>-88</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">AVERAGE(B6:E6)</f>
-        <v>-73</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,39 +363,39 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>208.67</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>363.13</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>436.06</v>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>208.67</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>363.13</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>436.06</v>
+      <c r="C11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>300</v>
@@ -453,7 +412,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>300</v>
@@ -470,7 +429,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>25</v>
@@ -487,7 +446,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>25</v>
@@ -504,7 +463,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>750</v>
@@ -521,7 +480,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>750</v>
@@ -538,353 +497,36 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.7</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>-30</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>-40</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>33</v>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
